--- a/RACINGLINE/RACINGLINE 2023-09-20 - June 2023/racingline_catalogue_new.xlsx
+++ b/RACINGLINE/RACINGLINE 2023-09-20 - June 2023/racingline_catalogue_new.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilbe\Documents\catalogos\RACINGLINE\RACINGLINE 2023-09-20 - June 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilbe\Dropbox\FAMILY\CEDRIC\CATALOGUES\RACINGLINE 2023-09-20 - June 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B369F-7B54-4657-9D5A-1174A479E414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D5EDB0-CFE7-48C1-B594-9AA3309C2EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 - Sep-20-2023" sheetId="1" r:id="rId1"/>
@@ -3729,7 +3729,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3795,6 +3795,14 @@
     <font>
       <u/>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4554,9 +4562,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4599,14 +4604,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4617,13 +4622,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5039,7 +5047,7 @@
   <dimension ref="A1:C453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5052,44 +5060,44 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="73" t="s">
         <v>1232</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
@@ -5102,7 +5110,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>3</v>
       </c>
@@ -6113,7 +6121,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="38" t="s">
         <v>180</v>
       </c>
@@ -6146,7 +6154,7 @@
         <v>170.63</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="38" t="s">
         <v>186</v>
       </c>
@@ -6362,7 +6370,7 @@
         <v>358.31</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="38" t="s">
         <v>223</v>
       </c>
@@ -6373,7 +6381,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="38" t="s">
         <v>225</v>
       </c>
@@ -6589,7 +6597,7 @@
         <v>75.08</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="38" t="s">
         <v>262</v>
       </c>
@@ -6882,7 +6890,7 @@
         <v>360.36</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="38" t="s">
         <v>313</v>
       </c>
@@ -6893,7 +6901,7 @@
         <v>503.69</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="38" t="s">
         <v>315</v>
       </c>
@@ -6915,7 +6923,7 @@
         <v>339.89</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="38" t="s">
         <v>319</v>
       </c>
@@ -7003,7 +7011,7 @@
         <v>498.23</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="38" t="s">
         <v>335</v>
       </c>
@@ -7113,7 +7121,7 @@
         <v>483.21</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="38" t="s">
         <v>355</v>
       </c>
@@ -7135,7 +7143,7 @@
         <v>524.16</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="38" t="s">
         <v>359</v>
       </c>
@@ -7267,7 +7275,7 @@
         <v>537.80999999999995</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="38" t="s">
         <v>383</v>
       </c>
@@ -7527,7 +7535,7 @@
         <v>47.78</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="38" t="s">
         <v>428</v>
       </c>
@@ -7681,7 +7689,7 @@
         <v>122.85</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="38" t="s">
         <v>456</v>
       </c>
@@ -7809,7 +7817,7 @@
         <v>1445.54</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="41" t="s">
         <v>477</v>
       </c>
@@ -7838,7 +7846,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="38" t="s">
         <v>480</v>
       </c>
@@ -7959,7 +7967,7 @@
         <v>95.16</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="38" t="s">
         <v>502</v>
       </c>
@@ -8025,7 +8033,7 @@
         <v>226.35</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="38" t="s">
         <v>514</v>
       </c>
@@ -8047,7 +8055,7 @@
         <v>887.25</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="38" t="s">
         <v>518</v>
       </c>
@@ -8124,7 +8132,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="41" t="s">
         <v>531</v>
       </c>
@@ -8186,7 +8194,7 @@
         <v>43.74</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="38" t="s">
         <v>540</v>
       </c>
@@ -8230,7 +8238,7 @@
         <v>887.24</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="38" t="s">
         <v>540</v>
       </c>
@@ -8263,7 +8271,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="38" t="s">
         <v>552</v>
       </c>
@@ -8578,7 +8586,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="38" t="s">
         <v>607</v>
       </c>
@@ -8589,7 +8597,7 @@
         <v>187.49</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="38" t="s">
         <v>609</v>
       </c>
@@ -8732,7 +8740,7 @@
         <v>57.33</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="38" t="s">
         <v>635</v>
       </c>
@@ -8944,7 +8952,7 @@
         <v>341.24</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="38" t="s">
         <v>669</v>
       </c>
@@ -9193,7 +9201,7 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="38" t="s">
         <v>711</v>
       </c>
@@ -9215,7 +9223,7 @@
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="38" t="s">
         <v>715</v>
       </c>
@@ -9486,7 +9494,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="38" t="s">
         <v>762</v>
       </c>
@@ -9574,7 +9582,7 @@
         <v>778.7</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="38" t="s">
         <v>778</v>
       </c>
@@ -9913,6 +9921,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="A413:C413"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="A361:C361"/>
+    <mergeCell ref="A350:C350"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A2:C7"/>
     <mergeCell ref="A223:C223"/>
@@ -9922,15 +9939,6 @@
     <mergeCell ref="A102:C102"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="A413:C413"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="A361:C361"/>
-    <mergeCell ref="A350:C350"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -9959,44 +9967,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="64" t="s">
         <v>1230</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
     </row>
     <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
     </row>
     <row r="8" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
@@ -10517,11 +10525,11 @@
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="15"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -10725,11 +10733,11 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="62" t="s">
+      <c r="A58" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="63"/>
-      <c r="C58" s="64"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="15"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -11383,11 +11391,11 @@
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="62" t="s">
+      <c r="A102" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="B102" s="63"/>
-      <c r="C102" s="64"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="63"/>
       <c r="D102" s="15"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -11493,10 +11501,10 @@
       <c r="C109" s="8">
         <v>249.36</v>
       </c>
-      <c r="D109" s="72" t="s">
+      <c r="D109" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="E109" s="73"/>
+      <c r="E109" s="66"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
@@ -11606,11 +11614,11 @@
       <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="62" t="s">
+      <c r="A117" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="B117" s="63"/>
-      <c r="C117" s="64"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="63"/>
       <c r="D117" s="15"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -11949,11 +11957,11 @@
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="62" t="s">
+      <c r="A140" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B140" s="63"/>
-      <c r="C140" s="64"/>
+      <c r="B140" s="62"/>
+      <c r="C140" s="63"/>
       <c r="D140" s="15"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -12217,11 +12225,11 @@
       <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="62" t="s">
+      <c r="A158" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="B158" s="63"/>
-      <c r="C158" s="64"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="63"/>
       <c r="D158" s="15"/>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
@@ -13190,11 +13198,11 @@
       <c r="G222" s="5"/>
     </row>
     <row r="223" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="62" t="s">
+      <c r="A223" s="61" t="s">
         <v>438</v>
       </c>
-      <c r="B223" s="63"/>
-      <c r="C223" s="64"/>
+      <c r="B223" s="62"/>
+      <c r="C223" s="63"/>
       <c r="D223" s="15"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
@@ -13595,11 +13603,11 @@
       <c r="G249" s="5"/>
     </row>
     <row r="250" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="62" t="s">
+      <c r="A250" s="61" t="s">
         <v>494</v>
       </c>
-      <c r="B250" s="63"/>
-      <c r="C250" s="64"/>
+      <c r="B250" s="62"/>
+      <c r="C250" s="63"/>
       <c r="D250" s="15"/>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
@@ -13756,11 +13764,11 @@
       <c r="G260" s="5"/>
     </row>
     <row r="261" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="62" t="s">
+      <c r="A261" s="61" t="s">
         <v>516</v>
       </c>
-      <c r="B261" s="63"/>
-      <c r="C261" s="64"/>
+      <c r="B261" s="62"/>
+      <c r="C261" s="63"/>
       <c r="D261" s="15"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
@@ -14189,11 +14197,11 @@
       <c r="G289" s="5"/>
     </row>
     <row r="290" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="65" t="s">
+      <c r="A290" s="70" t="s">
         <v>572</v>
       </c>
-      <c r="B290" s="66"/>
-      <c r="C290" s="67"/>
+      <c r="B290" s="71"/>
+      <c r="C290" s="72"/>
       <c r="D290" s="15"/>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
@@ -14532,11 +14540,11 @@
       <c r="G312" s="5"/>
     </row>
     <row r="313" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="62" t="s">
+      <c r="A313" s="61" t="s">
         <v>619</v>
       </c>
-      <c r="B313" s="63"/>
-      <c r="C313" s="64"/>
+      <c r="B313" s="62"/>
+      <c r="C313" s="63"/>
       <c r="D313" s="15"/>
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
@@ -15089,11 +15097,11 @@
       <c r="G349" s="5"/>
     </row>
     <row r="350" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="62" t="s">
+      <c r="A350" s="61" t="s">
         <v>695</v>
       </c>
-      <c r="B350" s="63"/>
-      <c r="C350" s="64"/>
+      <c r="B350" s="62"/>
+      <c r="C350" s="63"/>
       <c r="D350" s="15"/>
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
@@ -15250,11 +15258,11 @@
       <c r="G360" s="5"/>
     </row>
     <row r="361" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="62" t="s">
+      <c r="A361" s="61" t="s">
         <v>717</v>
       </c>
-      <c r="B361" s="63"/>
-      <c r="C361" s="64"/>
+      <c r="B361" s="62"/>
+      <c r="C361" s="63"/>
       <c r="D361" s="15"/>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
@@ -15486,11 +15494,11 @@
       <c r="G376" s="5"/>
     </row>
     <row r="377" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="62" t="s">
+      <c r="A377" s="61" t="s">
         <v>749</v>
       </c>
-      <c r="B377" s="63"/>
-      <c r="C377" s="64"/>
+      <c r="B377" s="62"/>
+      <c r="C377" s="63"/>
       <c r="D377" s="15"/>
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
@@ -16026,11 +16034,11 @@
       <c r="G412" s="5"/>
     </row>
     <row r="413" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="62" t="s">
+      <c r="A413" s="61" t="s">
         <v>823</v>
       </c>
-      <c r="B413" s="63"/>
-      <c r="C413" s="64"/>
+      <c r="B413" s="62"/>
+      <c r="C413" s="63"/>
       <c r="D413" s="15"/>
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
@@ -16128,9 +16136,9 @@
     </row>
     <row r="430" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="431" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="68"/>
-      <c r="B431" s="69"/>
-      <c r="C431" s="70"/>
+      <c r="A431" s="67"/>
+      <c r="B431" s="68"/>
+      <c r="C431" s="69"/>
     </row>
     <row r="432" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="33"/>
@@ -16139,16 +16147,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A2:C7"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="A413:C413"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="A361:C361"/>
-    <mergeCell ref="A350:C350"/>
     <mergeCell ref="A158:C158"/>
     <mergeCell ref="A140:C140"/>
     <mergeCell ref="A117:C117"/>
@@ -16158,6 +16156,16 @@
     <mergeCell ref="A261:C261"/>
     <mergeCell ref="A250:C250"/>
     <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="A413:C413"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="A361:C361"/>
+    <mergeCell ref="A350:C350"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A2:C7"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B383" r:id="rId1" display="mailto:p.wallace@racingline.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
